--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.32.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.32.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1619,7 +1619,7 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -1647,7 +1647,7 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -2039,7 +2039,7 @@
         <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -2081,7 +2081,7 @@
         <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2095,7 +2095,7 @@
         <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -2123,7 +2123,7 @@
         <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2305,7 +2305,7 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -2431,7 +2431,7 @@
         <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -2669,7 +2669,7 @@
         <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -2809,7 +2809,7 @@
         <v>167</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
